--- a/Data/Assumption/Zone/ZoneC1.xlsx
+++ b/Data/Assumption/Zone/ZoneC1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TechAssumption" sheetId="6" r:id="rId1"/>
@@ -594,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/Assumption/Zone/ZoneC1.xlsx
+++ b/Data/Assumption/Zone/ZoneC1.xlsx
@@ -29,9 +29,6 @@
     <t>Ratio of Power Loses to final consumption</t>
   </si>
   <si>
-    <t>PowerLosesRatio</t>
-  </si>
-  <si>
     <t>COA_SUB_HC</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t>GAS_CHP_EC_CCS_DH</t>
+  </si>
+  <si>
+    <t>PowerLossRatio</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -715,262 +715,262 @@
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Assumption/Zone/ZoneC1.xlsx
+++ b/Data/Assumption/Zone/ZoneC1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TechAssumption" sheetId="6" r:id="rId1"/>
@@ -290,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -594,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/Assumption/Zone/ZoneC1.xlsx
+++ b/Data/Assumption/Zone/ZoneC1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TechAssumption" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Unit</t>
   </si>
@@ -26,9 +26,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>Ratio of Power Loses to final consumption</t>
-  </si>
-  <si>
     <t>COA_SUB_HC</t>
   </si>
   <si>
@@ -188,7 +185,16 @@
     <t>GAS_CHP_EC_CCS_DH</t>
   </si>
   <si>
-    <t>PowerLossRatio</t>
+    <t>PowerDistLossRate</t>
+  </si>
+  <si>
+    <t>Ratio of power distribution loss to final consumption</t>
+  </si>
+  <si>
+    <t>HeatDistLossRate</t>
+  </si>
+  <si>
+    <t>Ratio of heat distribution loss to final consumption</t>
   </si>
 </sst>
 </file>
@@ -290,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -306,7 +312,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -592,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -608,7 +614,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -652,10 +658,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -691,6 +697,50 @@
         <v>3</v>
       </c>
       <c r="N2" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6">
+        <v>3</v>
+      </c>
+      <c r="I3" s="6">
+        <v>3</v>
+      </c>
+      <c r="J3" s="6">
+        <v>3</v>
+      </c>
+      <c r="K3" s="6">
+        <v>3</v>
+      </c>
+      <c r="L3" s="6">
+        <v>3</v>
+      </c>
+      <c r="M3" s="6">
+        <v>3</v>
+      </c>
+      <c r="N3" s="6">
         <v>3</v>
       </c>
     </row>
@@ -704,7 +754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
@@ -715,262 +765,262 @@
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
